--- a/data/country.xlsx
+++ b/data/country.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toto\Documents\Github\PythonBasic\02_unit02_01_web\class01_02_selenium\unit02_13_corona\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toto\Documents\Github\corona_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4FD17F0-2C0C-437D-BB59-4FF16A4AC038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37B10DC-0364-4EF5-A0DE-DD0CF5B83C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="772" yWindow="-14497" windowWidth="13118" windowHeight="13492"/>
+    <workbookView xWindow="-13642" yWindow="-15345" windowWidth="12794" windowHeight="11482" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="country" sheetId="1" r:id="rId1"/>
@@ -250,1299 +250,1301 @@
     <t>레소토</t>
   </si>
   <si>
+    <t>루마니아</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>룩셈부르크</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>르완다</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>리비아</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>리투아니아</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>마다가스카르</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>마카오</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>말라위</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>말레이시아</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>말리</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>맨섬</t>
+  </si>
+  <si>
+    <t>멕시코</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>모나코</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>모로코</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>모리셔스</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>모리타니</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>모잠비크</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>몬테네그로</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>몬트세랫</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>몰도바</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>몰디브</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>몰타 공화국</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>몽골</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>미국</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>미얀마</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>미크로네시아</t>
+  </si>
+  <si>
+    <t>바레인</t>
+  </si>
+  <si>
+    <t>바베이도스</t>
+  </si>
+  <si>
+    <t>바하마</t>
+  </si>
+  <si>
+    <t>방글라데시</t>
+  </si>
+  <si>
+    <t>버뮤다</t>
+  </si>
+  <si>
+    <t>베냉</t>
+  </si>
+  <si>
+    <t>베네수엘라</t>
+  </si>
+  <si>
+    <t>베트남</t>
+  </si>
+  <si>
+    <t>벨기에</t>
+  </si>
+  <si>
+    <t>벨라루스</t>
+  </si>
+  <si>
+    <t>벨리즈</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>보스니아 헤르체고비나</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>보츠와나</t>
+  </si>
+  <si>
+    <t>볼리비아</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>부르키나파소</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>부탄</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>북마케도니아</t>
+  </si>
+  <si>
+    <t>브라질</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>브루나이</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>사모아</t>
+  </si>
+  <si>
+    <t>사우디아라비아</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>산마리노</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>상투메 프린시페</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>세네갈</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>세르비아</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>세이셸</t>
+  </si>
+  <si>
+    <t>세인트루시아</t>
+  </si>
+  <si>
+    <t>세인트빈센트 그레나딘</t>
+  </si>
+  <si>
+    <t>세인트키츠 네비스</t>
+  </si>
+  <si>
+    <t>세인트헬레나</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>소말리아</t>
+  </si>
+  <si>
+    <t>솔로몬 제도</t>
+  </si>
+  <si>
+    <t>수단</t>
+  </si>
+  <si>
+    <t>수리남</t>
+  </si>
+  <si>
+    <t>스리랑카</t>
+  </si>
+  <si>
+    <t>스웨덴</t>
+  </si>
+  <si>
+    <t>스위스</t>
+  </si>
+  <si>
+    <t>스페인</t>
+  </si>
+  <si>
+    <t>슬로바키아</t>
+  </si>
+  <si>
+    <t>슬로베니아</t>
+  </si>
+  <si>
+    <t>시에라리온</t>
+  </si>
+  <si>
+    <t>신트마르턴</t>
+  </si>
+  <si>
+    <t>싱가포르</t>
+  </si>
+  <si>
+    <t>아랍에미레이트</t>
+  </si>
+  <si>
+    <t>아루바</t>
+  </si>
+  <si>
+    <t>아르메니아</t>
+  </si>
+  <si>
+    <t>아르헨티나</t>
+  </si>
+  <si>
+    <t>아이슬란드</t>
+  </si>
+  <si>
+    <t>아일랜드</t>
+  </si>
+  <si>
+    <t>아제르바이잔</t>
+  </si>
+  <si>
+    <t>아프가니스탄</t>
+  </si>
+  <si>
+    <t>안도라</t>
+  </si>
+  <si>
+    <t>알바니아</t>
+  </si>
+  <si>
+    <t>알제리</t>
+  </si>
+  <si>
+    <t>앙골라</t>
+  </si>
+  <si>
+    <t>앤티가 바부다</t>
+  </si>
+  <si>
+    <t>앵귈라</t>
+  </si>
+  <si>
+    <t>에스와티니</t>
+  </si>
+  <si>
+    <t>에스토니아</t>
+  </si>
+  <si>
+    <t>에콰도르</t>
+  </si>
+  <si>
+    <t>에티오피아</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>엘살바도르</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>영국</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>예멘</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>오만</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>오스트리아</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>온두라스</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>요르단</t>
+  </si>
+  <si>
+    <t>우간다</t>
+  </si>
+  <si>
+    <t>Republic of the Congo</t>
+  </si>
+  <si>
+    <t>우루과이</t>
+  </si>
+  <si>
+    <t>우즈베키스탄</t>
+  </si>
+  <si>
+    <t>우크라이나</t>
+  </si>
+  <si>
+    <t>이라크</t>
+  </si>
+  <si>
+    <t>이란</t>
+  </si>
+  <si>
+    <t>이스라엘</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>이집트</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>이탈리아</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>인도</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>인도네시아</t>
+  </si>
+  <si>
+    <t>일본</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>자메이카</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>잠비아</t>
+  </si>
+  <si>
+    <t>적도 기니</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>조지아</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>중국</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>중앙아프리카 공화국</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>지부티</t>
+  </si>
+  <si>
+    <t>지브롤터</t>
+  </si>
+  <si>
+    <t>짐바브웨</t>
+  </si>
+  <si>
+    <t>차드</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>체코</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>칠레</t>
+  </si>
+  <si>
+    <t>St. Lucia</t>
+  </si>
+  <si>
+    <t>카메룬</t>
+  </si>
+  <si>
+    <t>St. Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>카보베르데</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>카자흐스탄</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>캄보디아</t>
+  </si>
+  <si>
+    <t>캐나다</t>
+  </si>
+  <si>
+    <t>케냐</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>케이맨 제도</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>코모로</t>
+  </si>
+  <si>
+    <t>코소보</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>코스타리카</t>
+  </si>
+  <si>
+    <t>코트디부아르</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>콜롬비아</t>
+  </si>
+  <si>
+    <t>콩고공화국</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>콩고민주공화국</t>
+  </si>
+  <si>
+    <t>쿠바</t>
+  </si>
+  <si>
+    <t>쿠웨이트</t>
+  </si>
+  <si>
+    <t>퀴라소</t>
+  </si>
+  <si>
+    <t>U.S.</t>
+  </si>
+  <si>
+    <t>크로아티아</t>
+  </si>
+  <si>
+    <t>UAE</t>
+  </si>
+  <si>
+    <t>키르기스스탄</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>키프로스</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>타지키스탄</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>태국</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>터크스 케이커스 제도</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>터키</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>토고</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>튀니지</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>트리니다드 토바고</t>
+  </si>
+  <si>
+    <t>파나마</t>
+  </si>
+  <si>
+    <t>파라과이</t>
+  </si>
+  <si>
+    <t>파키스탄</t>
+  </si>
+  <si>
+    <t>파푸아뉴기니</t>
+  </si>
+  <si>
+    <t>페로 제도</t>
+  </si>
+  <si>
+    <t>페루</t>
+  </si>
+  <si>
+    <t>포르투갈</t>
+  </si>
+  <si>
+    <t>포클랜드 제도</t>
+  </si>
+  <si>
+    <t>폴란드</t>
+  </si>
+  <si>
+    <t>피지</t>
+  </si>
+  <si>
+    <t>핀란드</t>
+  </si>
+  <si>
+    <t>필리핀</t>
+  </si>
+  <si>
+    <t>헝가리</t>
+  </si>
+  <si>
+    <t>호주</t>
+  </si>
+  <si>
+    <t>홍콩</t>
+  </si>
+  <si>
+    <t>Austria</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algeria</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iceland</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ireland</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ivory Coast</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cambodia</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cameroon</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chad</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comoros</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Croatia</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curacao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyprus</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahrain</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barbados</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belarus</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belgium</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belize</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bermuda</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bhutan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Botswana</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brunei</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>불가리아</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahamas</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Djibouti</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dominica</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR Congo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ecuador</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>El Salvador</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eswatini</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mainland China</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nauru</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Falkland Islands</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tonga</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turks &amp; Caicos</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tunisia</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Georgia</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samoa</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sint Maarten</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serbia</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Sudan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guernsey</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honduras</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>U.K.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>St. Helena</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suriname</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switzerland</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jersey</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qatar</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>카타르</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>영문(블룸버그)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>국문(코로나보드)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>통가</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>투르크메니스탄</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>저지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>나우루</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>건지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>프랑스령 기아나</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guyana</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>프랑스령 폴리네시아</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polynesian</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>과들루프</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고_뜻</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴칼레도니아</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>레위니옹</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reunion Island</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>프랑스</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>리히텐슈타인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>마셜 제도</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>마르티니크</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Martinique</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Republic of the Marshall Islands</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>마요트</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mayotte</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>바누아투</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Republic of Vanuatu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>바티칸 시국</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vatican City</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>부룬디</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Republic of Burundi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>생바르텔레미</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint-Barthélemy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>생피에르 미클롱</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint-Pierre-et-Miquelon</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>서사하라</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>세인트마틴 섬</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Martin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>프랑스,네덜란드</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리아</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이티</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Republic of Haiti</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>에리트레아</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eritrea</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>영국령 버진아일랜드</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>영국</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>왈리스 퓌티나</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wallis et Futuna</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔담(크루즈)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zaandam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>네덜란드</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>카리브 네덜란드</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Caribisch Nederland</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄자니아</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tanzania</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔레스타인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palestinian</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>Lesotho</t>
-  </si>
-  <si>
-    <t>루마니아</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>룩셈부르크</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>르완다</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>리비아</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>리투아니아</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>마다가스카르</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>마카오</t>
-  </si>
-  <si>
-    <t>Macau</t>
-  </si>
-  <si>
-    <t>말라위</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>말레이시아</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>말리</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>맨섬</t>
-  </si>
-  <si>
-    <t>멕시코</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>모나코</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>모로코</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>모리셔스</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>모리타니</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>모잠비크</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>몬테네그로</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>몬트세랫</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>몰도바</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
-    <t>몰디브</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>몰타 공화국</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>몽골</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>미국</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>미얀마</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>미크로네시아</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Micronesia</t>
-  </si>
-  <si>
-    <t>바레인</t>
-  </si>
-  <si>
-    <t>바베이도스</t>
-  </si>
-  <si>
-    <t>바하마</t>
-  </si>
-  <si>
-    <t>방글라데시</t>
-  </si>
-  <si>
-    <t>버뮤다</t>
-  </si>
-  <si>
-    <t>베냉</t>
-  </si>
-  <si>
-    <t>베네수엘라</t>
-  </si>
-  <si>
-    <t>베트남</t>
-  </si>
-  <si>
-    <t>벨기에</t>
-  </si>
-  <si>
-    <t>벨라루스</t>
-  </si>
-  <si>
-    <t>벨리즈</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>보스니아 헤르체고비나</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>보츠와나</t>
-  </si>
-  <si>
-    <t>볼리비아</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>부르키나파소</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>부탄</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>북마케도니아</t>
-  </si>
-  <si>
-    <t>브라질</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>브루나이</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>사모아</t>
-  </si>
-  <si>
-    <t>사우디아라비아</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>산마리노</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>상투메 프린시페</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>세네갈</t>
-  </si>
-  <si>
-    <t>Kosovo</t>
-  </si>
-  <si>
-    <t>세르비아</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>세이셸</t>
-  </si>
-  <si>
-    <t>세인트루시아</t>
-  </si>
-  <si>
-    <t>세인트빈센트 그레나딘</t>
-  </si>
-  <si>
-    <t>세인트키츠 네비스</t>
-  </si>
-  <si>
-    <t>세인트헬레나</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>소말리아</t>
-  </si>
-  <si>
-    <t>솔로몬 제도</t>
-  </si>
-  <si>
-    <t>수단</t>
-  </si>
-  <si>
-    <t>수리남</t>
-  </si>
-  <si>
-    <t>스리랑카</t>
-  </si>
-  <si>
-    <t>스웨덴</t>
-  </si>
-  <si>
-    <t>스위스</t>
-  </si>
-  <si>
-    <t>스페인</t>
-  </si>
-  <si>
-    <t>슬로바키아</t>
-  </si>
-  <si>
-    <t>슬로베니아</t>
-  </si>
-  <si>
-    <t>시에라리온</t>
-  </si>
-  <si>
-    <t>신트마르턴</t>
-  </si>
-  <si>
-    <t>싱가포르</t>
-  </si>
-  <si>
-    <t>아랍에미레이트</t>
-  </si>
-  <si>
-    <t>아루바</t>
-  </si>
-  <si>
-    <t>아르메니아</t>
-  </si>
-  <si>
-    <t>아르헨티나</t>
-  </si>
-  <si>
-    <t>아이슬란드</t>
-  </si>
-  <si>
-    <t>아일랜드</t>
-  </si>
-  <si>
-    <t>아제르바이잔</t>
-  </si>
-  <si>
-    <t>아프가니스탄</t>
-  </si>
-  <si>
-    <t>안도라</t>
-  </si>
-  <si>
-    <t>알바니아</t>
-  </si>
-  <si>
-    <t>알제리</t>
-  </si>
-  <si>
-    <t>앙골라</t>
-  </si>
-  <si>
-    <t>앤티가 바부다</t>
-  </si>
-  <si>
-    <t>앵귈라</t>
-  </si>
-  <si>
-    <t>에스와티니</t>
-  </si>
-  <si>
-    <t>에스토니아</t>
-  </si>
-  <si>
-    <t>에콰도르</t>
-  </si>
-  <si>
-    <t>에티오피아</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>엘살바도르</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>영국</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>예멘</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>오만</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>오스트리아</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>온두라스</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>요르단</t>
-  </si>
-  <si>
-    <t>우간다</t>
-  </si>
-  <si>
-    <t>Republic of the Congo</t>
-  </si>
-  <si>
-    <t>우루과이</t>
-  </si>
-  <si>
-    <t>우즈베키스탄</t>
-  </si>
-  <si>
-    <t>우크라이나</t>
-  </si>
-  <si>
-    <t>이라크</t>
-  </si>
-  <si>
-    <t>이란</t>
-  </si>
-  <si>
-    <t>이스라엘</t>
-  </si>
-  <si>
-    <t>San Marino</t>
-  </si>
-  <si>
-    <t>이집트</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>이탈리아</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>인도</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>인도네시아</t>
-  </si>
-  <si>
-    <t>일본</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>자메이카</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>잠비아</t>
-  </si>
-  <si>
-    <t>적도 기니</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>조지아</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>중국</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>중앙아프리카 공화국</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>지부티</t>
-  </si>
-  <si>
-    <t>지브롤터</t>
-  </si>
-  <si>
-    <t>짐바브웨</t>
-  </si>
-  <si>
-    <t>차드</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>체코</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>칠레</t>
-  </si>
-  <si>
-    <t>St. Lucia</t>
-  </si>
-  <si>
-    <t>카메룬</t>
-  </si>
-  <si>
-    <t>St. Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>카보베르데</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>카자흐스탄</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>캄보디아</t>
-  </si>
-  <si>
-    <t>캐나다</t>
-  </si>
-  <si>
-    <t>케냐</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>케이맨 제도</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>코모로</t>
-  </si>
-  <si>
-    <t>코소보</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>코스타리카</t>
-  </si>
-  <si>
-    <t>코트디부아르</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>콜롬비아</t>
-  </si>
-  <si>
-    <t>콩고공화국</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>콩고민주공화국</t>
-  </si>
-  <si>
-    <t>쿠바</t>
-  </si>
-  <si>
-    <t>쿠웨이트</t>
-  </si>
-  <si>
-    <t>퀴라소</t>
-  </si>
-  <si>
-    <t>U.S.</t>
-  </si>
-  <si>
-    <t>크로아티아</t>
-  </si>
-  <si>
-    <t>UAE</t>
-  </si>
-  <si>
-    <t>키르기스스탄</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>키프로스</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>타지키스탄</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>태국</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>터크스 케이커스 제도</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>터키</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>토고</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>튀니지</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>트리니다드 토바고</t>
-  </si>
-  <si>
-    <t>파나마</t>
-  </si>
-  <si>
-    <t>파라과이</t>
-  </si>
-  <si>
-    <t>파키스탄</t>
-  </si>
-  <si>
-    <t>파푸아뉴기니</t>
-  </si>
-  <si>
-    <t>페로 제도</t>
-  </si>
-  <si>
-    <t>페루</t>
-  </si>
-  <si>
-    <t>포르투갈</t>
-  </si>
-  <si>
-    <t>포클랜드 제도</t>
-  </si>
-  <si>
-    <t>폴란드</t>
-  </si>
-  <si>
-    <t>피지</t>
-  </si>
-  <si>
-    <t>핀란드</t>
-  </si>
-  <si>
-    <t>필리핀</t>
-  </si>
-  <si>
-    <t>헝가리</t>
-  </si>
-  <si>
-    <t>호주</t>
-  </si>
-  <si>
-    <t>홍콩</t>
-  </si>
-  <si>
-    <t>Austria</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Algeria</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Iceland</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ireland</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Isle of Man</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ivory Coast</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cambodia</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cameroon</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Central African Republic</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chad</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comoros</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Croatia</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Curacao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cyprus</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bahrain</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Barbados</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Belarus</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Belgium</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Belize</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Benin</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bermuda</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bhutan</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Botswana</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brunei</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>불가리아</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bahamas</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Djibouti</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dominica</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>DR Congo</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ecuador</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>El Salvador</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equatorial Guinea</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eswatini</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>EU</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mainland China</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nauru</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Falkland Islands</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Faroe Islands</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Timor-Leste</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tonga</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turks &amp; Caicos</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tunisia</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Georgia</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Samoa</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Saint Kitts and Nevis</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sint Maarten</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Serbia</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>South Sudan</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guernsey</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Honduras</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>U.K.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>St. Helena</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Suriname</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Switzerland</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jersey</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Qatar</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>카타르</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>영문(블룸버그)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>국문(코로나보드)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>North Macedonia</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>통가</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>투르크메니스탄</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>저지</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>나우루</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>건지</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>프랑스령 기아나</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guyana</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>프랑스령 폴리네시아</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Polynesian</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>과들루프</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고_뜻</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>뉴칼레도니아</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Caledonia</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>레위니옹</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reunion Island</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>프랑스</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>리히텐슈타인</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>마셜 제도</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>마르티니크</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Martinique</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Republic of the Marshall Islands</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>마요트</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mayotte</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>바누아투</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Republic of Vanuatu</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>바티칸 시국</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vatican City</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>부룬디</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Republic of Burundi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>생바르텔레미</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Saint-Barthélemy</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>생피에르 미클롱</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Saint-Pierre-et-Miquelon</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>서사하라</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Western Sahara</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>세인트마틴 섬</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Saint Martin</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>프랑스,네덜란드</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>시리아</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Syrian Arab Republic</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이티</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Republic of Haiti</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>에리트레아</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eritrea</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>영국령 버진아일랜드</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>British Virgin Islands</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>영국</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>왈리스 퓌티나</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wallis et Futuna</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>잔담(크루즈)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zaandam</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>네덜란드</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>카리브 네덜란드</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Caribisch Nederland</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>탄자니아</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tanzania</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>팔레스타인</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Palestinian</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2498,11 +2500,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D228"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2515,16 +2517,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -2561,13 +2563,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -2642,7 +2644,7 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -2687,13 +2689,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
@@ -2749,7 +2751,7 @@
         <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
@@ -2765,7 +2767,7 @@
         <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
@@ -2781,7 +2783,7 @@
         <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
@@ -2813,389 +2815,389 @@
         <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>459</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
+        <v>413</v>
+      </c>
+      <c r="C37" t="s">
         <v>415</v>
       </c>
-      <c r="C37" t="s">
-        <v>417</v>
-      </c>
       <c r="D37" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
         <v>77</v>
-      </c>
-      <c r="B38" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
         <v>79</v>
-      </c>
-      <c r="B39" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
         <v>82</v>
-      </c>
-      <c r="B40" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
         <v>85</v>
-      </c>
-      <c r="B41" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s">
         <v>87</v>
-      </c>
-      <c r="B42" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D43" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
         <v>89</v>
-      </c>
-      <c r="B44" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D46" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" t="s">
         <v>92</v>
-      </c>
-      <c r="B48" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" t="s">
         <v>94</v>
-      </c>
-      <c r="B49" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" t="s">
         <v>96</v>
-      </c>
-      <c r="B50" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" t="s">
         <v>98</v>
-      </c>
-      <c r="B51" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B52" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" t="s">
         <v>101</v>
-      </c>
-      <c r="B53" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" t="s">
         <v>103</v>
-      </c>
-      <c r="B54" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" t="s">
         <v>106</v>
-      </c>
-      <c r="B55" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" t="s">
         <v>108</v>
-      </c>
-      <c r="B56" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" t="s">
         <v>110</v>
-      </c>
-      <c r="B57" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" t="s">
         <v>113</v>
-      </c>
-      <c r="B58" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" t="s">
         <v>115</v>
-      </c>
-      <c r="B59" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" t="s">
         <v>117</v>
-      </c>
-      <c r="B60" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" t="s">
         <v>119</v>
-      </c>
-      <c r="B61" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" t="s">
         <v>121</v>
-      </c>
-      <c r="B62" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" t="s">
         <v>123</v>
-      </c>
-      <c r="B63" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" t="s">
         <v>126</v>
-      </c>
-      <c r="B64" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B65" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
         <v>131</v>
-      </c>
-      <c r="B66" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B67" t="s">
-        <v>134</v>
+        <v>460</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D68" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B69" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B70" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D71" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B72" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B73" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B74" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B75" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B76" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B77" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B78" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B79" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B80" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B81" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B82" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B83" t="s">
         <v>56</v>
@@ -3203,47 +3205,47 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D84" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B85" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B86" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B87" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B88" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B89" t="s">
         <v>61</v>
@@ -3251,264 +3253,264 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B90" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B91" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B92" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B93" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B94" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C95" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D95" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C96" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D96" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D97" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B98" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B99" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B100" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B101" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
+        <v>436</v>
+      </c>
+      <c r="C102" t="s">
         <v>438</v>
       </c>
-      <c r="C102" t="s">
-        <v>440</v>
-      </c>
       <c r="D102" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B103" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B104" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B105" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B106" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B107" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B108" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B109" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B110" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B111" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B112" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B113" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B114" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B115" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D116" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B117" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B118" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B119" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B120" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B121" t="s">
         <v>28</v>
@@ -3516,7 +3518,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B122" t="s">
         <v>25</v>
@@ -3524,7 +3526,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B123" t="s">
         <v>21</v>
@@ -3532,31 +3534,31 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B124" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D125" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B126" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B127" t="s">
         <v>36</v>
@@ -3564,7 +3566,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B128" t="s">
         <v>3</v>
@@ -3572,7 +3574,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B129" t="s">
         <v>11</v>
@@ -3580,7 +3582,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
@@ -3588,15 +3590,15 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B131" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B132" t="s">
         <v>13</v>
@@ -3604,15 +3606,15 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B133" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B134" t="s">
         <v>16</v>
@@ -3620,376 +3622,376 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D135" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B136" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B137" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B138" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B139" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B140" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B141" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
+        <v>445</v>
+      </c>
+      <c r="C142" t="s">
         <v>447</v>
       </c>
-      <c r="C142" t="s">
-        <v>449</v>
-      </c>
       <c r="D142" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B143" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B144" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B145" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B146" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D147" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B148" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B149" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B150" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B151" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B152" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B153" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B154" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B155" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B156" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B157" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B158" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B159" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B160" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B161" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
+        <v>450</v>
+      </c>
+      <c r="C162" t="s">
         <v>452</v>
       </c>
-      <c r="C162" t="s">
-        <v>454</v>
-      </c>
       <c r="D162" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B163" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B164" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B165" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B166" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B167" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B168" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B169" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B170" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B171" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B172" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B173" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C174" t="s">
+        <v>452</v>
+      </c>
+      <c r="D174" t="s">
         <v>454</v>
-      </c>
-      <c r="D174" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B175" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B176" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B177" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B178" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B179" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B180" t="s">
         <v>72</v>
@@ -3997,266 +3999,266 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B181" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B182" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B183" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B184" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B185" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B186" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B187" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B188" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B189" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B190" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B191" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B192" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B193" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B194" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B195" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B196" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D197" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B198" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B199" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B200" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B201" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B202" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B203" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B204" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B205" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B206" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B207" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D208" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B209" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B210" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B211" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B212" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B213" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.45">
@@ -4264,60 +4266,60 @@
         <v>12</v>
       </c>
       <c r="B214" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D215" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D216" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B217" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B218" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B219" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B220" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B221" t="s">
         <v>31</v>
@@ -4325,55 +4327,55 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B222" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B223" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D223" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B224" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D224" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B225" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D225" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B226" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D226" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B227" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D227" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B228" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
